--- a/LF/TAS/Cote d'Ivoire/Fev 2023/ci_202302_lf_tas1_1_sites.xlsx
+++ b/LF/TAS/Cote d'Ivoire/Fev 2023/ci_202302_lf_tas1_1_sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\LF\TAS\Cote d'Ivoire\Fev 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B11A23-AE5D-4EC7-8FA6-1D4F5E33923E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE024CE-AF21-44E3-A59C-CEA1479AAC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4620,7 +4620,7 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{2DA3E354-72E3-4B24-B2E7-0412006E114C}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4655,64 +4655,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5593,8 +5535,8 @@
   <dimension ref="A1:G1925"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A696" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C716" sqref="C716"/>
+      <pane ySplit="1" topLeftCell="A1901" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD1925"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -38437,7 +38379,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -56958,7 +56900,7 @@
   </sheetData>
   <autoFilter ref="A1:E604" xr:uid="{D2BC692D-0CB0-4B53-B2FB-59E87292D9F8}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E604">
-      <sortCondition sortBy="cellColor" ref="E1" dxfId="11"/>
+      <sortCondition sortBy="cellColor" ref="E1" dxfId="4"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:P606">
